--- a/models/calculation engines/cbix2/outputs/default/final_specifications_to_viu_adjustment.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/final_specifications_to_viu_adjustment.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
         <v>0.3625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E2" t="n">
         <v>0.0675</v>
@@ -672,12 +672,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>18.51967249628754</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.866912424052263</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
         <v>25.3865849203398</v>
       </c>
@@ -697,20 +693,14 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>25.4579489296036</v>
+        <v>25.45794892960361</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>35.74281259614782</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>33.99306000683863</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>35.74281259614782</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -745,7 +735,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>83000</v>
+        <v>83000.00000000001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -788,12 +778,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>16.70839813571462</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.522542787856476</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
         <v>22.2309409235711</v>
       </c>
@@ -815,18 +801,12 @@
       <c r="AB3" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" t="n">
-        <v>24.43693362439515</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="n">
-        <v>23.76544141949537</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>24.43693362439515</v>
-      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -861,7 +841,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53000.00000000005</v>
+        <v>52999.99999999996</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -904,12 +884,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>21.70544840174978</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.946928673288422</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>30.6523770750382</v>
       </c>
@@ -931,18 +907,12 @@
       <c r="AB4" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" t="n">
-        <v>38.51603858741551</v>
-      </c>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
-      <c r="AE4" t="n">
-        <v>35.57213756985728</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>38.51603858741551</v>
-      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1020,12 +990,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v>24.04201634105072</v>
-      </c>
-      <c r="U5" t="n">
-        <v>10.34953479998208</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>34.3915511410328</v>
       </c>
@@ -1047,18 +1013,12 @@
       <c r="AB5" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" t="n">
-        <v>41.58464765984991</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="n">
-        <v>40.67101129621355</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41.58464765984991</v>
-      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,7 +1053,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>53000.00000000005</v>
+        <v>52999.99999999996</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1136,12 +1096,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>21.6775352098233</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8.907982342211298</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
         <v>30.5855175520346</v>
       </c>
@@ -1163,18 +1119,12 @@
       <c r="AB6" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" t="n">
-        <v>37.70061620040578</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="n">
-        <v>35.48096549303418</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>37.70061620040578</v>
-      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1252,12 +1202,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>22.78210582917422</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5.461323343148983</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -1279,18 +1225,12 @@
       <c r="AB7" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" t="n">
-        <v>34.76701351818878</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="n">
-        <v>33.3406355882956</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34.76701351818878</v>
-      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1368,12 +1308,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>22.78210582917422</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5.461323343148983</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -1395,18 +1331,12 @@
       <c r="AB8" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" t="n">
-        <v>34.4086747738414</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="n">
-        <v>33.3406355882956</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34.4086747738414</v>
-      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1484,12 +1414,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>22.78210582917422</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5.461323343148983</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -1511,18 +1437,12 @@
       <c r="AB9" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" t="n">
-        <v>40.0628791007435</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="n">
-        <v>33.3406355882956</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>40.0628791007435</v>
-      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1600,12 +1520,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>30.49906941564044</v>
-      </c>
-      <c r="U10" t="n">
-        <v>7.288674985242561</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
         <v>37.787744400883</v>
       </c>
@@ -1627,18 +1543,12 @@
       <c r="AB10" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" t="n">
-        <v>57.01058419882103</v>
-      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" t="n">
-        <v>43.94543028669539</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>57.01058419882103</v>
-      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1716,12 +1626,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>27.88819155022013</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.690352221512876</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
         <v>37.578543771733</v>
       </c>
@@ -1743,18 +1649,12 @@
       <c r="AB11" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" t="n">
-        <v>41.37029775859301</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" t="n">
-        <v>43.7129851431954</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41.37029775859301</v>
-      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1832,12 +1732,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>31.30406192289234</v>
-      </c>
-      <c r="U12" t="n">
-        <v>7.288674985242561</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
         <v>38.5927369081349</v>
       </c>
@@ -1857,20 +1753,14 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>41.81675633392202</v>
+        <v>41.81675633392203</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" t="n">
-        <v>52.89040945602037</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>47.39450338689119</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>52.89040945602037</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1948,12 +1838,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T13" t="n">
-        <v>32.67927403621634</v>
-      </c>
-      <c r="U13" t="n">
-        <v>7.288674985242561</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
         <v>39.9679490214589</v>
       </c>
@@ -1978,15 +1864,9 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="n">
-        <v>47.8522155959355</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>48.80097032097255</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>47.8522155959355</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2064,12 +1944,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T14" t="n">
-        <v>41.2363050083522</v>
-      </c>
-      <c r="U14" t="n">
-        <v>11.08097601060979</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
         <v>52.317281018962</v>
       </c>
@@ -2091,18 +1967,12 @@
       <c r="AB14" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" t="n">
-        <v>63.15598246956176</v>
-      </c>
+      <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" t="n">
-        <v>60.08935986233872</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>63.15598246956176</v>
-      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2180,12 +2050,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>41.42663082258238</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14.49661623853092</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
         <v>55.9232470611133</v>
       </c>
@@ -2210,15 +2076,9 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" t="n">
-        <v>53.50778777530169</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>73.94239875255066</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>53.50778777530169</v>
-      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2296,12 +2156,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>30.05507108741738</v>
-      </c>
-      <c r="U16" t="n">
-        <v>14.49661623853092</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
         <v>44.5516873259483</v>
       </c>
@@ -2326,15 +2182,9 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" t="n">
-        <v>50.96165804849196</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>61.02506471033369</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>50.96165804849196</v>
-      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2373,19 +2223,21 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>MRN wharf</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
+          <t>MRN_wharf</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>54405</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2412,12 +2264,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>35.29263783108131</v>
-      </c>
-      <c r="U17" t="n">
-        <v>16.4271332453306</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
         <v>51.7197710764119</v>
       </c>
@@ -2439,18 +2287,12 @@
       <c r="AB17" t="n">
         <v>0</v>
       </c>
-      <c r="AC17" t="n">
-        <v>47.26137868533452</v>
-      </c>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" t="n">
-        <v>47.26137868533452</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>47.26137868533452</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2528,12 +2370,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>54.04904571572634</v>
-      </c>
-      <c r="U18" t="n">
-        <v>20.58301587856167</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
         <v>74.632061594288</v>
       </c>
@@ -2555,18 +2393,12 @@
       <c r="AB18" t="n">
         <v>0</v>
       </c>
-      <c r="AC18" t="n">
-        <v>74.16444984119838</v>
-      </c>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" t="n">
-        <v>68.30327814052687</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>74.16444984119838</v>
-      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2605,7 +2437,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2613,11 +2445,13 @@
           <t>Rondon do Para wharf</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>50895</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2644,12 +2478,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>61.09955144419531</v>
-      </c>
-      <c r="U19" t="n">
-        <v>17.56003898638788</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
         <v>78.65959043058319</v>
       </c>
@@ -2671,18 +2501,12 @@
       <c r="AB19" t="n">
         <v>0</v>
       </c>
-      <c r="AC19" t="n">
-        <v>80.92231637394423</v>
-      </c>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" t="n">
-        <v>72.00202911263469</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>80.92231637394423</v>
-      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2726,7 +2550,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Paragominas wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -2760,12 +2584,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>39.62028644813313</v>
-      </c>
-      <c r="U20" t="n">
-        <v>20.18350059706107</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="n">
         <v>59.8037870451942</v>
       </c>
@@ -2787,18 +2607,12 @@
       <c r="AB20" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" t="n">
-        <v>53.94882080973284</v>
-      </c>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" t="n">
-        <v>54.68547498319582</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>53.94882080973284</v>
-      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2837,19 +2651,21 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Juruti wharf</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
+          <t>Juruti_wharf</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>50895</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2876,12 +2692,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>31.01967842735572</v>
-      </c>
-      <c r="U21" t="n">
-        <v>17.56003898638788</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
         <v>48.5797174137436</v>
       </c>
@@ -2903,18 +2715,12 @@
       <c r="AB21" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" t="n">
-        <v>43.31549168520069</v>
-      </c>
+      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" t="n">
-        <v>43.31549168520069</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>43.31549168520069</v>
-      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2992,12 +2798,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>49.25684814938593</v>
-      </c>
-      <c r="U22" t="n">
-        <v>20.66050806678376</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
         <v>69.91735621616969</v>
       </c>
@@ -3019,18 +2821,12 @@
       <c r="AB22" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" t="n">
-        <v>76.01196329283485</v>
-      </c>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="n">
-        <v>63.97344667082638</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>76.01196329283485</v>
-      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3108,12 +2904,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>38.06191719245086</v>
-      </c>
-      <c r="U23" t="n">
-        <v>19.61915532353223</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
         <v>57.6810725159831</v>
       </c>
@@ -3135,18 +2927,12 @@
       <c r="AB23" t="n">
         <v>0</v>
       </c>
-      <c r="AC23" t="n">
-        <v>66.81709943762382</v>
-      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" t="n">
-        <v>52.73604327269582</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>66.81709943762382</v>
-      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3224,12 +3010,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>48.75614446146347</v>
-      </c>
-      <c r="U24" t="n">
-        <v>19.71676054220713</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
         <v>68.4729050036706</v>
       </c>
@@ -3251,18 +3033,12 @@
       <c r="AB24" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" t="n">
-        <v>78.95791098627227</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" t="n">
-        <v>62.6469098430211</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>78.95791098627227</v>
-      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3340,12 +3116,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>40.88468108114044</v>
-      </c>
-      <c r="U25" t="n">
-        <v>16.24544781208976</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
         <v>57.1301288932302</v>
       </c>
@@ -3370,15 +3142,9 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
-      <c r="AD25" t="n">
-        <v>63.46215081774663</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>54.73719394009791</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>63.46215081774663</v>
-      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3456,12 +3222,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T26" t="n">
-        <v>30.18108937909565</v>
-      </c>
-      <c r="U26" t="n">
-        <v>10.00367190352525</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
         <v>40.1847612826209</v>
       </c>
@@ -3483,18 +3245,12 @@
       <c r="AB26" t="n">
         <v>0</v>
       </c>
-      <c r="AC26" t="n">
-        <v>49.42426537779092</v>
-      </c>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
-      <c r="AE26" t="n">
-        <v>36.66800234409789</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>49.42426537779092</v>
-      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3572,12 +3328,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>42.71689931344696</v>
-      </c>
-      <c r="U27" t="n">
-        <v>21.29110102420574</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
         <v>64.0080003376527</v>
       </c>
@@ -3599,18 +3351,12 @@
       <c r="AB27" t="n">
         <v>0</v>
       </c>
-      <c r="AC27" t="n">
-        <v>51.02220809916479</v>
-      </c>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
-      <c r="AE27" t="n">
-        <v>58.54648719055567</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51.02220809916479</v>
-      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3645,7 +3391,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>45000.00000000002</v>
+        <v>45000.00000000001</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -3688,12 +3434,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>39.17118445976089</v>
-      </c>
-      <c r="U28" t="n">
-        <v>21.21523126605451</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
         <v>60.3864157258154</v>
       </c>
@@ -3715,18 +3457,12 @@
       <c r="AB28" t="n">
         <v>0</v>
       </c>
-      <c r="AC28" t="n">
-        <v>45.09663129609098</v>
-      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
-      <c r="AE28" t="n">
-        <v>55.22054213886835</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>45.09663129609098</v>
-      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3804,12 +3540,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>40.95785780806005</v>
-      </c>
-      <c r="U29" t="n">
-        <v>14.46035449718915</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
         <v>55.4182123052492</v>
       </c>
@@ -3834,15 +3566,9 @@
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" t="n">
-        <v>40.81428885646103</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>54.37368966917858</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>40.81428885646103</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3920,12 +3646,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>39.31060339188343</v>
-      </c>
-      <c r="U30" t="n">
-        <v>14.63285190442317</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
         <v>53.9434552963066</v>
       </c>
@@ -3950,15 +3672,9 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" t="n">
-        <v>44.98528043109111</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>52.98007216807785</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>44.98528043109111</v>
-      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4055,18 +3771,12 @@
       <c r="AB31" t="n">
         <v>0</v>
       </c>
-      <c r="AC31" t="n">
-        <v>-40.58056588928572</v>
-      </c>
+      <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" t="n">
-        <v>-37.04190271759503</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>-40.58056588928572</v>
-      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4144,12 +3854,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>37.66670793749085</v>
-      </c>
-      <c r="U32" t="n">
-        <v>11.52835054491885</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
         <v>49.1950584824097</v>
       </c>
@@ -4171,18 +3877,12 @@
       <c r="AB32" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" t="n">
-        <v>49.42949497798487</v>
-      </c>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
-      <c r="AE32" t="n">
-        <v>44.94276507859781</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>49.42949497798487</v>
-      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4260,12 +3960,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>35.27529891119032</v>
-      </c>
-      <c r="U33" t="n">
-        <v>12.07616221221438</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
         <v>47.3514611234047</v>
       </c>
@@ -4287,18 +3983,12 @@
       <c r="AB33" t="n">
         <v>0</v>
       </c>
-      <c r="AC33" t="n">
-        <v>42.59054801399894</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
-      <c r="AE33" t="n">
-        <v>43.24966546318505</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>42.59054801399894</v>
-      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4376,12 +4066,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>38.72687906902867</v>
-      </c>
-      <c r="U34" t="n">
-        <v>29.61439403963423</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
         <v>68.3412731086629</v>
       </c>
@@ -4403,18 +4089,12 @@
       <c r="AB34" t="n">
         <v>0</v>
       </c>
-      <c r="AC34" t="n">
-        <v>82.68439195603598</v>
-      </c>
+      <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
-      <c r="AE34" t="n">
-        <v>62.52602340883035</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>82.68439195603598</v>
-      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4492,12 +4172,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>32.10245621258925</v>
-      </c>
-      <c r="U35" t="n">
-        <v>12.46195244206995</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>44.5644086546592</v>
       </c>
@@ -4519,18 +4195,12 @@
       <c r="AB35" t="n">
         <v>0</v>
       </c>
-      <c r="AC35" t="n">
-        <v>41.88494620025153</v>
-      </c>
+      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
-      <c r="AE35" t="n">
-        <v>40.69012748168409</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>41.88494620025153</v>
-      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4608,12 +4278,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>32.49955115399948</v>
-      </c>
-      <c r="U36" t="n">
-        <v>12.56392628112143</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
         <v>45.0634774351209</v>
       </c>
@@ -4635,18 +4301,12 @@
       <c r="AB36" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" t="n">
-        <v>43.9933876263248</v>
-      </c>
+      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
-      <c r="AE36" t="n">
-        <v>41.14845595353668</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>43.9933876263248</v>
-      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4724,12 +4384,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>41.00733998472695</v>
-      </c>
-      <c r="U37" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
         <v>53.6202205174842</v>
       </c>
@@ -4751,18 +4407,12 @@
       <c r="AB37" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" t="n">
-        <v>44.43409065192614</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
-      <c r="AE37" t="n">
-        <v>49.00668939652336</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>44.43409065192614</v>
-      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4840,12 +4490,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T38" t="n">
-        <v>38.64687906902867</v>
-      </c>
-      <c r="U38" t="n">
-        <v>29.61439403963423</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
         <v>68.26127310866291</v>
       </c>
@@ -4867,18 +4513,12 @@
       <c r="AB38" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" t="n">
-        <v>75.88467014452179</v>
-      </c>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
-      <c r="AE38" t="n">
-        <v>62.45255402107525</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>75.88467014452179</v>
-      </c>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4956,12 +4596,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>31.16587782157105</v>
-      </c>
-      <c r="U39" t="n">
-        <v>12.50518117915845</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
         <v>43.6710590007295</v>
       </c>
@@ -4983,18 +4619,12 @@
       <c r="AB39" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" t="n">
-        <v>35.31730446500561</v>
-      </c>
+      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="n">
         <v>0</v>
       </c>
-      <c r="AE39" t="n">
-        <v>39.86970433011599</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>35.31730446500561</v>
-      </c>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5072,12 +4702,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>39.63123453713585</v>
-      </c>
-      <c r="U40" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
         <v>52.2441150698931</v>
       </c>
@@ -5099,18 +4725,12 @@
       <c r="AB40" t="n">
         <v>0</v>
       </c>
-      <c r="AC40" t="n">
-        <v>51.47758817289709</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" t="n">
-        <v>47.74291908751114</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>51.47758817289709</v>
-      </c>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5188,12 +4808,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>34.93302874644186</v>
-      </c>
-      <c r="U41" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
         <v>47.5459092791991</v>
       </c>
@@ -5215,18 +4831,12 @@
       <c r="AB41" t="n">
         <v>0</v>
       </c>
-      <c r="AC41" t="n">
-        <v>43.35550058133683</v>
-      </c>
+      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" t="n">
-        <v>43.42824030013909</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>43.35550058133683</v>
-      </c>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5304,12 +4914,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>40.16873658246386</v>
-      </c>
-      <c r="U42" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
         <v>52.7816171152211</v>
       </c>
@@ -5331,18 +4937,12 @@
       <c r="AB42" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" t="n">
-        <v>52.07481266770598</v>
-      </c>
+      <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" t="n">
-        <v>48.23654341485317</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>52.07481266770598</v>
-      </c>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5420,12 +5020,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T43" t="n">
-        <v>44.03341765932546</v>
-      </c>
-      <c r="U43" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
         <v>56.6462981920827</v>
       </c>
@@ -5447,18 +5043,12 @@
       <c r="AB43" t="n">
         <v>0</v>
       </c>
-      <c r="AC43" t="n">
-        <v>52.99120648909595</v>
-      </c>
+      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" t="n">
-        <v>51.78574032217505</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>52.99120648909595</v>
-      </c>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5536,12 +5126,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>49.34974476035281</v>
-      </c>
-      <c r="U44" t="n">
-        <v>20.60315241137869</v>
-      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
         <v>69.95289717173149</v>
       </c>
@@ -5563,18 +5149,12 @@
       <c r="AB44" t="n">
         <v>0</v>
       </c>
-      <c r="AC44" t="n">
-        <v>57.78526815685554</v>
-      </c>
+      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" t="n">
-        <v>64.00608632389333</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>57.78526815685554</v>
-      </c>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5652,12 +5232,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T45" t="n">
-        <v>54.27285213300851</v>
-      </c>
-      <c r="U45" t="n">
-        <v>20.60315241137869</v>
-      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
         <v>74.8760045443872</v>
       </c>
@@ -5679,18 +5255,12 @@
       <c r="AB45" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" t="n">
-        <v>68.50004890322013</v>
-      </c>
+      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" t="n">
-        <v>68.52730738041389</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>68.50004890322013</v>
-      </c>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5725,7 +5295,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>45000.00000000002</v>
+        <v>45000.00000000001</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -5768,12 +5338,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>56.72020774785553</v>
-      </c>
-      <c r="U46" t="n">
-        <v>20.45469939104558</v>
-      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
         <v>77.1749071389011</v>
       </c>
@@ -5795,18 +5361,12 @@
       <c r="AB46" t="n">
         <v>0</v>
       </c>
-      <c r="AC46" t="n">
-        <v>64.03508447459848</v>
-      </c>
+      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
-      <c r="AE46" t="n">
-        <v>70.63854445700828</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>64.03508447459848</v>
-      </c>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5841,7 +5401,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>69000</v>
+        <v>68999.99999999999</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -5884,12 +5444,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>48.00815218166029</v>
-      </c>
-      <c r="U47" t="n">
-        <v>14.37018115332611</v>
-      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
         <v>62.3783333349864</v>
       </c>
@@ -5914,15 +5470,9 @@
       <c r="AC47" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" t="n">
-        <v>68.76339258967764</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>59.5325076432254</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>68.76339258967764</v>
-      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6000,12 +5550,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>27.4715613225229</v>
-      </c>
-      <c r="U48" t="n">
-        <v>8.465372906119599</v>
-      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
         <v>35.9369342286425</v>
       </c>
@@ -6027,18 +5573,12 @@
       <c r="AB48" t="n">
         <v>0</v>
       </c>
-      <c r="AC48" t="n">
-        <v>50.27949177288419</v>
-      </c>
+      <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" t="n">
-        <v>35.37285363742895</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>50.27949177288419</v>
-      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6116,12 +5656,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T49" t="n">
-        <v>29.52513849633991</v>
-      </c>
-      <c r="U49" t="n">
-        <v>9.440462960631193</v>
-      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
         <v>38.9656014569711</v>
       </c>
@@ -6143,18 +5679,12 @@
       <c r="AB49" t="n">
         <v>0</v>
       </c>
-      <c r="AC49" t="n">
-        <v>47.10265241250755</v>
-      </c>
+      <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
         <v>0</v>
       </c>
-      <c r="AE49" t="n">
-        <v>35.54836576952155</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>47.10265241250755</v>
-      </c>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6232,12 +5762,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T50" t="n">
-        <v>30.08655426879705</v>
-      </c>
-      <c r="U50" t="n">
-        <v>10.19196548671975</v>
-      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
         <v>40.2785197555168</v>
       </c>
@@ -6259,18 +5785,12 @@
       <c r="AB50" t="n">
         <v>0</v>
       </c>
-      <c r="AC50" t="n">
-        <v>48.56145052200278</v>
-      </c>
+      <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" t="n">
-        <v>36.75410706410434</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>48.56145052200278</v>
-      </c>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6348,12 +5868,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>27.48380808248715</v>
-      </c>
-      <c r="U51" t="n">
-        <v>8.482452508985249</v>
-      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
         <v>35.9662605914724</v>
       </c>
@@ -6375,18 +5891,12 @@
       <c r="AB51" t="n">
         <v>0</v>
       </c>
-      <c r="AC51" t="n">
-        <v>50.31332988384176</v>
-      </c>
+      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
         <v>0</v>
       </c>
-      <c r="AE51" t="n">
-        <v>35.39964929889788</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>50.31332988384176</v>
-      </c>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6464,12 +5974,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T52" t="n">
-        <v>27.98481189920355</v>
-      </c>
-      <c r="U52" t="n">
-        <v>9.181163535307251</v>
-      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
         <v>37.1659754345108</v>
       </c>
@@ -6491,18 +5997,12 @@
       <c r="AB52" t="n">
         <v>0</v>
       </c>
-      <c r="AC52" t="n">
-        <v>51.69761624119376</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
         <v>0</v>
       </c>
-      <c r="AE52" t="n">
-        <v>36.49583544989744</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51.69761624119376</v>
-      </c>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6580,12 +6080,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T53" t="n">
-        <v>28.41122181432005</v>
-      </c>
-      <c r="U53" t="n">
-        <v>9.775844253265756</v>
-      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="n">
         <v>38.1870660675858</v>
       </c>
@@ -6607,18 +6103,12 @@
       <c r="AB53" t="n">
         <v>0</v>
       </c>
-      <c r="AC53" t="n">
-        <v>44.4140502968921</v>
-      </c>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
         <v>0</v>
       </c>
-      <c r="AE53" t="n">
-        <v>37.42881166285938</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>44.4140502968921</v>
-      </c>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6653,7 +6143,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>53000.00000000005</v>
+        <v>52999.99999999996</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -6696,12 +6186,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T54" t="n">
-        <v>27.49287980812989</v>
-      </c>
-      <c r="U54" t="n">
-        <v>8.50138264576611</v>
-      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="n">
         <v>35.994262453896</v>
       </c>
@@ -6723,18 +6209,12 @@
       <c r="AB54" t="n">
         <v>0</v>
       </c>
-      <c r="AC54" t="n">
-        <v>33.9413016087661</v>
-      </c>
+      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
-      <c r="AE54" t="n">
-        <v>32.81958505241176</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>33.9413016087661</v>
-      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6769,7 +6249,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>53000.00000000005</v>
+        <v>52999.99999999996</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -6812,12 +6292,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T55" t="n">
-        <v>27.49287980812989</v>
-      </c>
-      <c r="U55" t="n">
-        <v>8.50138264576611</v>
-      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
         <v>35.994262453896</v>
       </c>
@@ -6839,18 +6315,12 @@
       <c r="AB55" t="n">
         <v>0</v>
       </c>
-      <c r="AC55" t="n">
-        <v>33.9413016087661</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
-      <c r="AE55" t="n">
-        <v>32.81958505241176</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>33.9413016087661</v>
-      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6885,7 +6355,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>53000.00000000005</v>
+        <v>52999.99999999996</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -6928,12 +6398,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T56" t="n">
-        <v>24.23918031688341</v>
-      </c>
-      <c r="U56" t="n">
-        <v>8.689882888179397</v>
-      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="n">
         <v>32.9290632050628</v>
       </c>
@@ -6955,18 +6421,12 @@
       <c r="AB56" t="n">
         <v>0</v>
       </c>
-      <c r="AC56" t="n">
-        <v>38.17968831353399</v>
-      </c>
+      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
         <v>0</v>
       </c>
-      <c r="AE56" t="n">
-        <v>30.0046061504221</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>38.17968831353399</v>
-      </c>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7044,12 +6504,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T57" t="n">
-        <v>33.77109755252398</v>
-      </c>
-      <c r="U57" t="n">
-        <v>6.334994656340528</v>
-      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
       <c r="V57" t="n">
         <v>40.1060922088645</v>
       </c>
@@ -7071,18 +6527,12 @@
       <c r="AB57" t="n">
         <v>0</v>
       </c>
-      <c r="AC57" t="n">
-        <v>50.79872873497256</v>
-      </c>
+      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
         <v>0</v>
       </c>
-      <c r="AE57" t="n">
-        <v>36.5957552355461</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>50.79872873497256</v>
-      </c>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7160,12 +6610,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T58" t="n">
-        <v>31.59699918901837</v>
-      </c>
-      <c r="U58" t="n">
-        <v>6.364626763551532</v>
-      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="n">
         <v>37.9616259525699</v>
       </c>
@@ -7187,18 +6633,12 @@
       <c r="AB58" t="n">
         <v>0</v>
       </c>
-      <c r="AC58" t="n">
-        <v>36.89971485408932</v>
-      </c>
+      <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="n">
         <v>0</v>
       </c>
-      <c r="AE58" t="n">
-        <v>34.6263474491531</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>36.89971485408932</v>
-      </c>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7276,12 +6716,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T59" t="n">
-        <v>29.68007772042979</v>
-      </c>
-      <c r="U59" t="n">
-        <v>6.366789263640809</v>
-      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
         <v>36.0468669840706</v>
       </c>
@@ -7303,18 +6739,12 @@
       <c r="AB59" t="n">
         <v>0</v>
       </c>
-      <c r="AC59" t="n">
-        <v>46.23210035707941</v>
-      </c>
+      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="n">
         <v>0</v>
       </c>
-      <c r="AE59" t="n">
-        <v>32.86789533522517</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>46.23210035707941</v>
-      </c>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7392,12 +6822,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>23.07850526252562</v>
-      </c>
-      <c r="U60" t="n">
-        <v>10.34071916163337</v>
-      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="n">
         <v>33.419224424159</v>
       </c>
@@ -7422,15 +6848,9 @@
       <c r="AC60" t="n">
         <v>0</v>
       </c>
-      <c r="AD60" t="n">
-        <v>62.17131162694452</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>33.58506189410385</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>62.17131162694452</v>
-      </c>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7508,12 +6928,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T61" t="n">
-        <v>43.33536848655665</v>
-      </c>
-      <c r="U61" t="n">
-        <v>20.87783296306095</v>
-      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="n">
         <v>64.2132014496176</v>
       </c>
@@ -7538,15 +6954,9 @@
       <c r="AC61" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" t="n">
-        <v>54.10941086783332</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>61.20903688502041</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>54.10941086783332</v>
-      </c>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7581,7 +6991,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000.00000000003</v>
+        <v>40000.00000000004</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -7624,12 +7034,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T62" t="n">
-        <v>46.05846768596334</v>
-      </c>
-      <c r="U62" t="n">
-        <v>20.95903648679926</v>
-      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
         <v>67.0175041727626</v>
       </c>
@@ -7654,15 +7060,9 @@
       <c r="AC62" t="n">
         <v>0</v>
       </c>
-      <c r="AD62" t="n">
-        <v>79.75388243362511</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>63.77134394170111</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>79.75388243362511</v>
-      </c>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7697,7 +7097,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>40000.00000000003</v>
+        <v>40000.00000000004</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -7740,12 +7140,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T63" t="n">
-        <v>46.01223718195493</v>
-      </c>
-      <c r="U63" t="n">
-        <v>20.95903648679926</v>
-      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="n">
         <v>66.97127366875419</v>
       </c>
@@ -7770,15 +7166,9 @@
       <c r="AC63" t="n">
         <v>0</v>
       </c>
-      <c r="AD63" t="n">
-        <v>79.70251520694912</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>63.72910287204876</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>79.70251520694912</v>
-      </c>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7813,7 +7203,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>68999.99999999999</v>
+        <v>68999.99999999997</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -7856,12 +7246,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T64" t="n">
-        <v>31.26401944353569</v>
-      </c>
-      <c r="U64" t="n">
-        <v>20.33480435445231</v>
-      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
         <v>51.598823797988</v>
       </c>
@@ -7886,15 +7272,9 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
-      <c r="AD64" t="n">
-        <v>70.12422225945117</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>49.68320958911519</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>70.12422225945117</v>
-      </c>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7929,7 +7309,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>68999.99999999999</v>
+        <v>68999.99999999997</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -7972,12 +7352,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T65" t="n">
-        <v>31.26401944353569</v>
-      </c>
-      <c r="U65" t="n">
-        <v>20.33480435445231</v>
-      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="n">
         <v>51.598823797988</v>
       </c>
@@ -8002,15 +7378,9 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
-      <c r="AD65" t="n">
-        <v>90.33913245048832</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>49.68320958911519</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>90.33913245048832</v>
-      </c>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8088,12 +7458,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T66" t="n">
-        <v>38.51060868795282</v>
-      </c>
-      <c r="U66" t="n">
-        <v>7.104748117963871</v>
-      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
         <v>45.6153568059167</v>
       </c>
@@ -8115,18 +7481,12 @@
       <c r="AB66" t="n">
         <v>0</v>
       </c>
-      <c r="AC66" t="n">
-        <v>53.17254195089748</v>
-      </c>
+      <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="n">
         <v>0</v>
       </c>
-      <c r="AE66" t="n">
-        <v>41.65528394712464</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>53.17254195089748</v>
-      </c>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8204,12 +7564,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T67" t="n">
-        <v>38.47041749142092</v>
-      </c>
-      <c r="U67" t="n">
-        <v>7.104748117963871</v>
-      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
         <v>45.5751656093848</v>
       </c>
@@ -8231,18 +7587,12 @@
       <c r="AB67" t="n">
         <v>0</v>
       </c>
-      <c r="AC67" t="n">
-        <v>60.13888639573961</v>
-      </c>
+      <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="n">
         <v>0</v>
       </c>
-      <c r="AE67" t="n">
-        <v>41.61837366459535</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>60.13888639573961</v>
-      </c>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8277,7 +7627,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>65000.00000000002</v>
+        <v>65000.00000000001</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -8320,12 +7670,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T68" t="n">
-        <v>44.27756696603448</v>
-      </c>
-      <c r="U68" t="n">
-        <v>14.75882656377141</v>
-      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
         <v>59.0363935298059</v>
       </c>
@@ -8350,15 +7696,9 @@
       <c r="AC68" t="n">
         <v>0</v>
       </c>
-      <c r="AD68" t="n">
-        <v>47.11506271627692</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>56.47895858265438</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>47.11506271627692</v>
-      </c>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8436,12 +7776,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T69" t="n">
-        <v>46.28909536389961</v>
-      </c>
-      <c r="U69" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
         <v>63.4870311048672</v>
       </c>
@@ -8466,15 +7802,9 @@
       <c r="AC69" t="n">
         <v>0</v>
       </c>
-      <c r="AD69" t="n">
-        <v>97.2418017852234</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>60.54553098626369</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>97.2418017852234</v>
-      </c>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8552,12 +7882,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T70" t="n">
-        <v>46.30045673493041</v>
-      </c>
-      <c r="U70" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
         <v>63.498392475898</v>
       </c>
@@ -8582,15 +7908,9 @@
       <c r="AC70" t="n">
         <v>0</v>
       </c>
-      <c r="AD70" t="n">
-        <v>97.25683889394064</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>60.55591193441366</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>97.25683889394064</v>
-      </c>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8668,12 +7988,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T71" t="n">
-        <v>48.9070821248099</v>
-      </c>
-      <c r="U71" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="n">
         <v>66.1050178657775</v>
       </c>
@@ -8698,15 +8014,9 @@
       <c r="AC71" t="n">
         <v>0</v>
       </c>
-      <c r="AD71" t="n">
-        <v>71.07127141384879</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>64.47251894729226</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>71.07127141384879</v>
-      </c>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8784,12 +8094,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T72" t="n">
-        <v>48.9070821248099</v>
-      </c>
-      <c r="U72" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="n">
         <v>66.1050178657775</v>
       </c>
@@ -8814,15 +8120,9 @@
       <c r="AC72" t="n">
         <v>0</v>
       </c>
-      <c r="AD72" t="n">
-        <v>71.07127141384879</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>64.47251894729226</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>71.07127141384879</v>
-      </c>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8900,12 +8200,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T73" t="n">
-        <v>48.9070821248099</v>
-      </c>
-      <c r="U73" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
         <v>66.1050178657775</v>
       </c>
@@ -8930,15 +8226,9 @@
       <c r="AC73" t="n">
         <v>0</v>
       </c>
-      <c r="AD73" t="n">
-        <v>71.07127141384879</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>64.47251894729226</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>71.07127141384879</v>
-      </c>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9016,12 +8306,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T74" t="n">
-        <v>48.0993181059612</v>
-      </c>
-      <c r="U74" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="n">
         <v>65.2972538469288</v>
       </c>
@@ -9046,15 +8332,9 @@
       <c r="AC74" t="n">
         <v>0</v>
       </c>
-      <c r="AD74" t="n">
-        <v>67.1139849729077</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>63.70919721591486</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>67.1139849729077</v>
-      </c>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9132,12 +8412,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T75" t="n">
-        <v>47.90462340159711</v>
-      </c>
-      <c r="U75" t="n">
-        <v>17.19793574096759</v>
-      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
         <v>65.1025591425647</v>
       </c>
@@ -9162,15 +8438,9 @@
       <c r="AC75" t="n">
         <v>0</v>
       </c>
-      <c r="AD75" t="n">
-        <v>66.92512397492573</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>63.52521439994711</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>66.92512397492573</v>
-      </c>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9205,7 +8475,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>69000</v>
+        <v>68999.99999999999</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -9248,12 +8518,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T76" t="n">
-        <v>29.69625963695053</v>
-      </c>
-      <c r="U76" t="n">
-        <v>10.42539710550187</v>
-      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
         <v>40.1216567424524</v>
       </c>
@@ -9278,15 +8544,9 @@
       <c r="AC76" t="n">
         <v>0</v>
       </c>
-      <c r="AD76" t="n">
-        <v>45.24732045709404</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>39.91873376145376</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>45.24732045709404</v>
-      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9364,12 +8624,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T77" t="n">
-        <v>37.84929258978019</v>
-      </c>
-      <c r="U77" t="n">
-        <v>17.45064002469291</v>
-      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="n">
         <v>55.2999326144731</v>
       </c>
@@ -9391,18 +8647,12 @@
       <c r="AB77" t="n">
         <v>0</v>
       </c>
-      <c r="AC77" t="n">
-        <v>51.40378975733022</v>
-      </c>
+      <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="n">
         <v>0</v>
       </c>
-      <c r="AE77" t="n">
-        <v>50.54928213865605</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>51.40378975733022</v>
-      </c>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9480,12 +8730,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T78" t="n">
-        <v>35.70177785085409</v>
-      </c>
-      <c r="U78" t="n">
-        <v>8.552770345011812</v>
-      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="n">
         <v>44.2545481958659</v>
       </c>
@@ -9510,15 +8756,9 @@
       <c r="AC78" t="n">
         <v>0</v>
       </c>
-      <c r="AD78" t="n">
-        <v>38.2570440785684</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>42.97270396281073</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>38.2570440785684</v>
-      </c>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9553,7 +8793,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>68999.99999999999</v>
+        <v>68999.99999999997</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -9596,12 +8836,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T79" t="n">
-        <v>33.77912791006791</v>
-      </c>
-      <c r="U79" t="n">
-        <v>16.38240706811769</v>
-      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="n">
         <v>50.1615349781856</v>
       </c>
@@ -9623,18 +8859,12 @@
       <c r="AB79" t="n">
         <v>0</v>
       </c>
-      <c r="AC79" t="n">
-        <v>50.48234655392922</v>
-      </c>
+      <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="n">
         <v>0</v>
       </c>
-      <c r="AE79" t="n">
-        <v>45.83034553390221</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>50.48234655392922</v>
-      </c>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9712,12 +8942,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T80" t="n">
-        <v>25.66060640398574</v>
-      </c>
-      <c r="U80" t="n">
-        <v>14.23016560305166</v>
-      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="n">
         <v>39.8907720070374</v>
       </c>
@@ -9739,18 +8965,12 @@
       <c r="AB80" t="n">
         <v>0</v>
       </c>
-      <c r="AC80" t="n">
-        <v>45.90445491379749</v>
-      </c>
+      <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="n">
         <v>0</v>
       </c>
-      <c r="AE80" t="n">
-        <v>39.70055205012081</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>45.90445491379749</v>
-      </c>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9828,12 +9048,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T81" t="n">
-        <v>38.36749500804663</v>
-      </c>
-      <c r="U81" t="n">
-        <v>17.82773807510926</v>
-      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="n">
         <v>56.1952330831559</v>
       </c>
@@ -9858,15 +9074,9 @@
       <c r="AC81" t="n">
         <v>0</v>
       </c>
-      <c r="AD81" t="n">
-        <v>56.19523308315588</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>51.3714968547933</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>56.19523308315588</v>
-      </c>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9901,7 +9111,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>45000.00000000001</v>
+        <v>45000</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -9944,12 +9154,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T82" t="n">
-        <v>31.68423540437969</v>
-      </c>
-      <c r="U82" t="n">
-        <v>5.508566855920709</v>
-      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="n">
         <v>37.1928022603004</v>
       </c>
@@ -9971,18 +9177,12 @@
       <c r="AB82" t="n">
         <v>0</v>
       </c>
-      <c r="AC82" t="n">
-        <v>36.45091789608643</v>
-      </c>
+      <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="n">
         <v>0</v>
       </c>
-      <c r="AE82" t="n">
-        <v>33.92028487461988</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>36.45091789608643</v>
-      </c>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10017,7 +9217,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>45000.00000000001</v>
+        <v>45000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -10060,12 +9260,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T83" t="n">
-        <v>31.68423540437969</v>
-      </c>
-      <c r="U83" t="n">
-        <v>5.508566855920709</v>
-      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="n">
         <v>37.1928022603004</v>
       </c>
@@ -10087,18 +9283,12 @@
       <c r="AB83" t="n">
         <v>0</v>
       </c>
-      <c r="AC83" t="n">
-        <v>36.45091789608643</v>
-      </c>
+      <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="n">
         <v>0</v>
       </c>
-      <c r="AE83" t="n">
-        <v>33.92028487461988</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>36.45091789608643</v>
-      </c>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10133,7 +9323,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>44999.99999999999</v>
+        <v>45000</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -10176,12 +9366,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T84" t="n">
-        <v>24.82650795202539</v>
-      </c>
-      <c r="U84" t="n">
-        <v>5.319366532244312</v>
-      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="n">
         <v>30.1458744842697</v>
       </c>
@@ -10203,18 +9389,12 @@
       <c r="AB84" t="n">
         <v>0</v>
       </c>
-      <c r="AC84" t="n">
-        <v>25.76790067159497</v>
-      </c>
+      <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="n">
         <v>0</v>
       </c>
-      <c r="AE84" t="n">
-        <v>30.49180806598502</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>25.76790067159497</v>
-      </c>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10292,12 +9472,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T85" t="n">
-        <v>24.56295123880506</v>
-      </c>
-      <c r="U85" t="n">
-        <v>7.029128793740838</v>
-      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="n">
         <v>31.5920800325459</v>
       </c>
@@ -10322,15 +9498,9 @@
       <c r="AC85" t="n">
         <v>0</v>
       </c>
-      <c r="AD85" t="n">
-        <v>39.68063609455697</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>31.4029360978483</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>39.68063609455697</v>
-      </c>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10408,12 +9578,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T86" t="n">
-        <v>38.68841649383145</v>
-      </c>
-      <c r="U86" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="n">
         <v>51.3012970265887</v>
       </c>
@@ -10435,18 +9601,12 @@
       <c r="AB86" t="n">
         <v>0</v>
       </c>
-      <c r="AC86" t="n">
-        <v>48.44851841818487</v>
-      </c>
+      <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="n">
         <v>0</v>
       </c>
-      <c r="AE86" t="n">
-        <v>46.87706578243566</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>48.44851841818487</v>
-      </c>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10524,12 +9684,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T87" t="n">
-        <v>36.20046031615735</v>
-      </c>
-      <c r="U87" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="n">
         <v>48.8133408489146</v>
       </c>
@@ -10551,18 +9707,12 @@
       <c r="AB87" t="n">
         <v>0</v>
       </c>
-      <c r="AC87" t="n">
-        <v>47.66561681625431</v>
-      </c>
+      <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="n">
         <v>0</v>
       </c>
-      <c r="AE87" t="n">
-        <v>44.59220806824516</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>47.66561681625431</v>
-      </c>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10640,12 +9790,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T88" t="n">
-        <v>44.63027058040785</v>
-      </c>
-      <c r="U88" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
       <c r="V88" t="n">
         <v>57.2431511131651</v>
       </c>
@@ -10667,18 +9813,12 @@
       <c r="AB88" t="n">
         <v>0</v>
       </c>
-      <c r="AC88" t="n">
-        <v>55.28654939981757</v>
-      </c>
+      <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="n">
         <v>0</v>
       </c>
-      <c r="AE88" t="n">
-        <v>52.33387055582217</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>55.28654939981757</v>
-      </c>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10756,12 +9896,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T89" t="n">
-        <v>37.64535106547775</v>
-      </c>
-      <c r="U89" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
       <c r="V89" t="n">
         <v>50.258231598235</v>
       </c>
@@ -10783,18 +9919,12 @@
       <c r="AB89" t="n">
         <v>0</v>
       </c>
-      <c r="AC89" t="n">
-        <v>52.63095715563643</v>
-      </c>
+      <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="n">
         <v>0</v>
       </c>
-      <c r="AE89" t="n">
-        <v>45.91914855231492</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>52.63095715563643</v>
-      </c>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10872,12 +10002,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T90" t="n">
-        <v>41.71313280040646</v>
-      </c>
-      <c r="U90" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="n">
         <v>54.3260133331637</v>
       </c>
@@ -10899,18 +10025,12 @@
       <c r="AB90" t="n">
         <v>0</v>
       </c>
-      <c r="AC90" t="n">
-        <v>53.79080846541999</v>
-      </c>
+      <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="n">
         <v>0</v>
       </c>
-      <c r="AE90" t="n">
-        <v>49.6548664721474</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>53.79080846541999</v>
-      </c>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10988,12 +10108,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T91" t="n">
-        <v>36.18752680912976</v>
-      </c>
-      <c r="U91" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="n">
         <v>48.800407341887</v>
       </c>
@@ -11015,18 +10131,12 @@
       <c r="AB91" t="n">
         <v>0</v>
       </c>
-      <c r="AC91" t="n">
-        <v>46.13176699722685</v>
-      </c>
+      <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="n">
         <v>0</v>
       </c>
-      <c r="AE91" t="n">
-        <v>44.58033035770963</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>46.13176699722685</v>
-      </c>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11104,12 +10214,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T92" t="n">
-        <v>29.75878031701666</v>
-      </c>
-      <c r="U92" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
       <c r="V92" t="n">
         <v>42.3716608497739</v>
       </c>
@@ -11131,18 +10237,12 @@
       <c r="AB92" t="n">
         <v>0</v>
       </c>
-      <c r="AC92" t="n">
-        <v>42.86982393864201</v>
-      </c>
+      <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="n">
         <v>0</v>
       </c>
-      <c r="AE92" t="n">
-        <v>38.67637949760574</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>42.86982393864201</v>
-      </c>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11220,12 +10320,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T93" t="n">
-        <v>40.44213534043575</v>
-      </c>
-      <c r="U93" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
       <c r="V93" t="n">
         <v>53.055015873193</v>
       </c>
@@ -11247,18 +10343,12 @@
       <c r="AB93" t="n">
         <v>0</v>
       </c>
-      <c r="AC93" t="n">
-        <v>49.18867226909509</v>
-      </c>
+      <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="n">
         <v>0</v>
       </c>
-      <c r="AE93" t="n">
-        <v>48.48762390686819</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>49.18867226909509</v>
-      </c>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11336,12 +10426,8 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T94" t="n">
-        <v>33.67528357696195</v>
-      </c>
-      <c r="U94" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="n">
         <v>46.2881641097192</v>
       </c>
@@ -11363,23 +10449,17 @@
       <c r="AB94" t="n">
         <v>0</v>
       </c>
-      <c r="AC94" t="n">
-        <v>42.02377040188754</v>
-      </c>
+      <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="n">
         <v>0</v>
       </c>
-      <c r="AE94" t="n">
-        <v>42.27316820571878</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>42.02377040188754</v>
-      </c>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Aurum Xinfa-Fiji</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -11398,10 +10478,10 @@
         <v>0.005</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -11409,7 +10489,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>157950</v>
+        <v>54000.00000000004</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -11418,7 +10498,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>SPIC wharf</t>
+          <t>Aurum Xinfa-Fiji wharf</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -11452,14 +10532,10 @@
           <t>dmt</t>
         </is>
       </c>
-      <c r="T95" t="n">
-        <v>41.25192127406815</v>
-      </c>
-      <c r="U95" t="n">
-        <v>12.61288053275724</v>
-      </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="n">
-        <v>53.8648018068254</v>
+        <v>40.1847612826209</v>
       </c>
       <c r="W95" t="n">
         <v>0.33</v>
@@ -11479,18 +10555,118 @@
       <c r="AB95" t="n">
         <v>0</v>
       </c>
-      <c r="AC95" t="n">
-        <v>54.79016971264573</v>
-      </c>
+      <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="n">
         <v>0</v>
       </c>
-      <c r="AE95" t="n">
-        <v>49.2313048663265</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>54.79016971264573</v>
-      </c>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SPIC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>157950</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>SPIC wharf</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="n">
+        <v>53.8648018068254</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>CBIX</t>
+        </is>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
